--- a/attachments/forms/CI.xlsx
+++ b/attachments/forms/CI.xlsx
@@ -1,32 +1,376 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr codeName="현재_통합_문서"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cox_biz\business\SalesManager\forms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF806454-FCE4-4108-B573-AAA56B1F3D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new CI" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'new CI'!$A$1:$K$38</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q'TY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>TOTAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#810, Hanwha Biz Metro 1-cha, 242, Digital-ro, Guro-gu, Seoul, Korea (152-733)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>COX CO., Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>COUNTRY Of ORIGIN : South korea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cameras are of Korean preferential origin, customs authorization code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>COX CO., Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>DESCRIPTION OF GOODS</t>
+    </r>
+  </si>
+  <si>
+    <t>UNIT PRICE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>AMOUNT</t>
+    </r>
+  </si>
+  <si>
+    <t>AUTHORIZED SIGNATURE</t>
+  </si>
+  <si>
+    <t>Ship to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**COMMERCIAL INVOICE**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment Term : 100% advance payment received</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENTIONEX INNOVATIONS SDN BHD</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>No 2, Jalan Laman Setia 7/6, Setia Business Park,</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tel :+607-595 0387</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attn : Jacklyn Ng</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone: 82-2-857-3888,   Fax: 82-70-7858-0022   E-mail: sales@coxcamera.com    www.coxcamera.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invoice No.: </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">To: </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">From: </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PO No.: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;US$&quot;* #,##0_ ;_-&quot;US$&quot;* \-#,##0\ ;_-&quot;US$&quot;* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -45,18 +389,288 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" indent="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="쉼표 [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{F5C1E5FD-6C47-4496-B71F-9368E3A92C0F}"/>
+    <cellStyle name="표준 3" xfId="4" xr:uid="{DEFB3888-C740-4055-976A-50C31D3606FD}"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -66,6 +680,179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92697</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>116512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>968997</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 4" descr="COX_CI">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="92697" y="116512"/>
+          <a:ext cx="876300" cy="412635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181993</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224716</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9" descr="CP_로고_A등급png.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6392293" y="74840"/>
+          <a:ext cx="461823" cy="467618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203062</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00795FC1-25F5-BCA5-7B72-35A5AB0A3E7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4565512" y="7743825"/>
+          <a:ext cx="2223775" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,44 +866,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +930,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +964,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +975,763 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="3.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="5" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:17" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13">
+        <f>I16*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <f>J16*0.01</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <f>K16*L16*M16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <f>C16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <f>F16*C16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <f>C16*N16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="12"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="12"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="12"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="12"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="12"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="12"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUM(C16:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="36">
+        <f>SUM(I16:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="N26" s="4" t="e">
+        <f>N16*C16+#REF!*#REF!+#REF!*#REF!+#REF!*#REF!+#REF!*#REF!+#REF!*#REF!+#REF!*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O26" s="1">
+        <f>SUM(O16:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f>SUM(P16:P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>SUM(Q16:Q17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="E38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:G15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="A32:C38"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="37" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>